--- a/DesignElements/Project Management/Roles - RASCI.xlsx
+++ b/DesignElements/Project Management/Roles - RASCI.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="216" documentId="11_27F3C578010B72308695D6FC6B73B1DA2C7307B5" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{88EBEAFA-C6A7-4FCB-904A-BC4DBD05019D}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessw\Documents\Group Project\desk23\DesignElements\Project Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEAF4407-A47A-4004-8D95-3A1F92963EDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>Key</t>
   </si>
@@ -82,9 +87,6 @@
     <t>Team Members</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wenda </t>
   </si>
   <si>
@@ -107,15 +109,6 @@
   </si>
   <si>
     <t>Back End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A </t>
-  </si>
-  <si>
-    <t>No one is resposible for Backend yet</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>UI / UX</t>
@@ -140,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,13 +662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
@@ -686,12 +679,12 @@
     <col min="8" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -707,7 +700,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -723,7 +716,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -739,7 +732,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -755,7 +748,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -771,7 +764,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="9" spans="1:11" ht="23.25">
+    <row r="9" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
@@ -782,37 +775,35 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="H9" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="23.25">
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="15" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="23.25">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>1</v>
@@ -824,12 +815,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="23.25">
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>10</v>
@@ -843,19 +834,13 @@
       <c r="F12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="23.25">
+    </row>
+    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>7</v>
@@ -870,29 +855,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="23.25">
+    <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="23.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>7</v>
@@ -901,27 +886,27 @@
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="23.25">
+    <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>1</v>
@@ -930,9 +915,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="23.25">
+    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>4</v>
@@ -944,10 +929,10 @@
         <v>4</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -965,9 +950,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,22 +1170,43 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD912C64-A683-4779-87A1-AE98D65F2360}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A6EB280-DB6E-4825-B0E9-AFA186850588}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF8B483-B0A6-4CF6-A559-5849D87662E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF8B483-B0A6-4CF6-A559-5849D87662E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="282a6439-55bf-4e0c-8e7b-3c6254bfab40"/>
+    <ds:schemaRef ds:uri="2154648b-c288-4c61-a630-f86fa10bab94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A6EB280-DB6E-4825-B0E9-AFA186850588}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD912C64-A683-4779-87A1-AE98D65F2360}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>